--- a/se_databaseV1.1.xlsx
+++ b/se_databaseV1.1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code data\java\ssh1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12870"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="12876"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
     <author>Robinson lee</author>
   </authors>
   <commentList>
-    <comment ref="B17" authorId="0">
+    <comment ref="B17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -42,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="0">
+    <comment ref="B26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B39" authorId="0">
+    <comment ref="B39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B99" authorId="0">
+    <comment ref="B103" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B104" authorId="0">
+    <comment ref="B108" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B111" authorId="0">
+    <comment ref="B115" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -157,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="136">
   <si>
     <t>第一次release</t>
   </si>
@@ -517,23 +522,133 @@
   </si>
   <si>
     <t>班级id</t>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o_gr_max</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o_gr_min</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nteger</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大组员人数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ull</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小小组人数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>co_gr_preyear</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>co_gr_preclass</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组号前缀中年份</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组号前缀中班级号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -546,156 +661,38 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,194 +705,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1029,299 +840,138 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1329,26 +979,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1356,125 +988,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1485,10 +1022,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="555555"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="F9F9F9"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1732,1294 +1269,1362 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33333333333333" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="5" max="5" width="13.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="22.78" customWidth="1"/>
-    <col min="7" max="7" width="13.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="27.5533333333333" customWidth="1"/>
-    <col min="12" max="12" width="11.8866666666667" customWidth="1"/>
-    <col min="13" max="13" width="20.8866666666667" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="27.5546875" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="72.6" customHeight="1" spans="2:5">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" ht="43.95" customHeight="1" spans="2:5">
-      <c r="B3" s="1" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+    </row>
+    <row r="3" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" ht="43.95" customHeight="1" spans="2:5">
-      <c r="B4" s="1" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+    </row>
+    <row r="4" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" ht="43.95" customHeight="1" spans="2:5">
-      <c r="B5" s="1" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+    </row>
+    <row r="5" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" ht="58.2" customHeight="1" spans="2:5">
-      <c r="B6" s="1" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+    </row>
+    <row r="6" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="27"/>
-    </row>
-    <row r="18" ht="13.5" spans="1:6">
-      <c r="A18" s="3"/>
-      <c r="B18" s="6" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" ht="13.5" spans="1:6">
-      <c r="A19" s="3"/>
-      <c r="B19" s="6" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="7">
+      <c r="C19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3">
         <v>10</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3"/>
-      <c r="B20" s="8" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="9">
+      <c r="C20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="5">
         <v>20</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="3"/>
-      <c r="B21" s="8" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="9">
+      <c r="C21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="5">
         <v>10</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" ht="27" spans="1:6">
-      <c r="A22" s="3"/>
-      <c r="B22" s="10" t="s">
+    <row r="22" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="11">
+      <c r="C22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="7">
         <v>16</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" ht="29.25" spans="1:6">
-      <c r="A23" s="3"/>
-      <c r="B23" s="12" t="s">
+    <row r="23" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="9">
         <v>1</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="14"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="14">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
         <v>5</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="32"/>
-    </row>
-    <row r="27" ht="13.5" spans="1:6">
-      <c r="A27" s="14"/>
-      <c r="B27" s="17" t="s">
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="44"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="14"/>
-      <c r="B28" s="19" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="20">
+      <c r="C28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="14">
         <v>7</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="34" t="s">
+      <c r="F28" s="24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="14"/>
-      <c r="B29" s="19" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="20">
+      <c r="C29" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="14">
         <v>6</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="34" t="s">
+      <c r="F29" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" ht="15" spans="1:8">
-      <c r="A30" s="14"/>
-      <c r="B30" s="19" t="s">
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="21">
+      <c r="C30" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="15">
         <v>10</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="35" t="s">
+      <c r="F30" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="14"/>
-      <c r="B31" s="19" t="s">
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="14">
         <v>11</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="34" t="s">
+      <c r="F31" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="14"/>
-      <c r="B32" s="19" t="s">
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="20">
+      <c r="C32" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="14">
         <v>30</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="34" t="s">
+      <c r="F32" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33" ht="13.5" spans="1:8">
-      <c r="A33" s="14"/>
-      <c r="B33" s="17" t="s">
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="18">
+      <c r="C33" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="12">
         <v>15</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="14"/>
-      <c r="B34" s="22" t="s">
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23" t="s">
+      <c r="D34" s="17"/>
+      <c r="E34" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="36" t="s">
+      <c r="F34" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-    </row>
-    <row r="35" spans="6:8">
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-    </row>
-    <row r="36" spans="7:8">
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-    </row>
-    <row r="37" spans="7:7">
-      <c r="G37" s="14"/>
-    </row>
-    <row r="38" spans="7:7">
-      <c r="G38" s="14"/>
-    </row>
-    <row r="39" ht="23.25" customHeight="1" spans="1:7">
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>6</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="14"/>
-    </row>
-    <row r="40" ht="13.5" spans="2:7">
-      <c r="B40" s="17" t="s">
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F40" s="33" t="s">
+      <c r="F40" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="14"/>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="19" t="s">
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20" t="s">
+      <c r="C41" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="34" t="s">
+      <c r="F41" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="G41" s="14"/>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="19" t="s">
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20" t="s">
+      <c r="D42" s="14"/>
+      <c r="E42" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="34" t="s">
+      <c r="F42" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G42" s="14"/>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="19" t="s">
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="20">
+      <c r="C43" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="14">
         <v>50</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F43" s="34" t="s">
+      <c r="F43" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="19" t="s">
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="20">
+      <c r="C44" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="14">
         <v>20</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="34" t="s">
+      <c r="F44" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="19" t="s">
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="20">
+      <c r="C45" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="14">
         <v>20</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="34" t="s">
+      <c r="F45" s="24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="19"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="34"/>
-    </row>
-    <row r="47" ht="13.5" spans="2:6">
-      <c r="B47" s="22" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="13"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="24"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23" t="s">
+      <c r="C47" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F47" s="38" t="s">
+      <c r="F47" s="27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" ht="10.2" customHeight="1" spans="2:6">
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="18"/>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="18"/>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="18"/>
-    </row>
-    <row r="53" spans="1:6">
+    <row r="48" spans="1:8" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="12"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="12"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>7</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="37"/>
-    </row>
-    <row r="54" ht="13.95" customHeight="1" spans="2:6">
-      <c r="B54" s="17" t="s">
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="47"/>
+    </row>
+    <row r="54" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E54" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="33" t="s">
+      <c r="F54" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="17" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20" t="s">
+      <c r="C55" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F55" s="34" t="s">
+      <c r="F55" s="24" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="17" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20" t="s">
+      <c r="C56" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F56" s="34" t="s">
+      <c r="F56" s="24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="17" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="26" t="s">
+      <c r="C57" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="14"/>
+      <c r="E57" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="34" t="s">
+      <c r="F57" s="24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="58" ht="13.5" spans="2:6">
-      <c r="B58" s="17" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18" t="s">
+      <c r="D58" s="12"/>
+      <c r="E58" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F58" s="33" t="s">
+      <c r="F58" s="23" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="2:6">
-      <c r="B59" s="22" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="23">
+      <c r="C59" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="17">
         <v>7</v>
       </c>
-      <c r="E59" s="23" t="s">
+      <c r="E59" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F59" s="36" t="s">
+      <c r="F59" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>8</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="37"/>
-    </row>
-    <row r="64" ht="13.5" spans="2:6">
-      <c r="B64" s="17" t="s">
+      <c r="C63" s="46"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="47"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="18" t="s">
+      <c r="E64" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F64" s="33" t="s">
+      <c r="F64" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65" ht="15" spans="2:6">
-      <c r="B65" s="19" t="s">
+    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B65" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="21">
+      <c r="C65" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="15">
         <v>10</v>
       </c>
-      <c r="E65" s="21" t="s">
+      <c r="E65" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F65" s="35" t="s">
+      <c r="F65" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="66" ht="15" spans="2:6">
-      <c r="B66" s="19"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="35"/>
-    </row>
-    <row r="67" ht="15" spans="2:6">
-      <c r="B67" s="19" t="s">
+    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B66" s="13"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="25"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B67" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21" t="s">
+      <c r="C67" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F67" s="35" t="s">
+      <c r="F67" s="25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="2:6">
-      <c r="B68" s="22" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="C68" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23" t="s">
+      <c r="D68" s="17"/>
+      <c r="E68" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F68" s="36" t="s">
+      <c r="F68" s="26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="71" ht="13.95" customHeight="1" spans="1:6">
+    <row r="71" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>9</v>
       </c>
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="37"/>
-    </row>
-    <row r="72" ht="13.5" spans="2:6">
-      <c r="B72" s="17" t="s">
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="47"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="18" t="s">
+      <c r="E72" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F72" s="33" t="s">
+      <c r="F72" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="73" ht="15" spans="2:6">
-      <c r="B73" s="19" t="s">
+    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B73" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" s="21">
+      <c r="C73" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="15">
         <v>10</v>
       </c>
-      <c r="E73" s="21" t="s">
+      <c r="E73" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F73" s="35" t="s">
+      <c r="F73" s="25" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="74" ht="15" spans="2:6">
-      <c r="B74" s="19" t="s">
+    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B74" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C74" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21" t="s">
+      <c r="C74" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F74" s="35" t="s">
+      <c r="F74" s="25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="2:6">
-      <c r="B75" s="22" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="C75" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23" t="s">
+      <c r="D75" s="17"/>
+      <c r="E75" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F75" s="36" t="s">
+      <c r="F75" s="26" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>10</v>
       </c>
-      <c r="B78" s="39" t="s">
+      <c r="B78" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="44"/>
-    </row>
-    <row r="79" ht="13.5" spans="1:6">
-      <c r="A79" s="3"/>
-      <c r="B79" s="6" t="s">
+      <c r="C78" s="49"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="49"/>
+      <c r="F78" s="50"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F79" s="28" t="s">
+      <c r="F79" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="80" ht="13.5" spans="1:6">
-      <c r="A80" s="3"/>
-      <c r="B80" s="6" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7" t="s">
+      <c r="C80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F80" s="28"/>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="3"/>
-      <c r="B81" s="8" t="s">
+      <c r="F80" s="19"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D81" s="9">
+      <c r="C81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="5">
         <v>20</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F81" s="29" t="s">
+      <c r="F81" s="20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="3"/>
-      <c r="B82" s="8" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C82" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" s="9">
+      <c r="C82" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="5">
         <v>200</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F82" s="29" t="s">
+      <c r="F82" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="3"/>
-      <c r="B83" s="8" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9" t="s">
+      <c r="D83" s="5"/>
+      <c r="E83" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F83" s="29" t="s">
+      <c r="F83" s="20" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="3"/>
-      <c r="B84" s="8" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9" t="s">
+      <c r="D84" s="5"/>
+      <c r="E84" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F84" s="29" t="s">
+      <c r="F84" s="20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="3"/>
-      <c r="B85" s="8" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C85" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
+      <c r="C85" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F85" s="29" t="s">
+      <c r="F85" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="3"/>
-      <c r="B86" s="41" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C86" s="42" t="s">
+      <c r="C86" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D86" s="42"/>
-      <c r="E86" s="42" t="s">
+      <c r="D86" s="29"/>
+      <c r="E86" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F86" s="45" t="s">
+      <c r="F86" s="31" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>11</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="27"/>
-    </row>
-    <row r="90" ht="13.5" spans="1:6">
-      <c r="A90" s="3"/>
-      <c r="B90" s="6" t="s">
+      <c r="C89" s="40"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="41"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E90" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F90" s="28" t="s">
+      <c r="F90" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="91" ht="13.5" spans="1:6">
-      <c r="A91" s="3"/>
-      <c r="B91" s="6" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C91" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" s="9">
+      <c r="C91" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="5">
         <v>6</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E91" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F91" s="28" t="s">
+      <c r="F91" s="19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="92" ht="13.5" spans="1:6">
-      <c r="A92" s="3"/>
-      <c r="B92" s="6" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C92" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D92" s="9">
+      <c r="C92" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="5">
         <v>20</v>
       </c>
-      <c r="E92" s="9"/>
-      <c r="F92" s="28" t="s">
+      <c r="E92" s="5"/>
+      <c r="F92" s="19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="93" ht="13.5" spans="1:6">
-      <c r="A93" s="3"/>
-      <c r="B93" s="6" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9" t="s">
+      <c r="D93" s="5"/>
+      <c r="E93" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F93" s="28" t="s">
+      <c r="F93" s="19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="94" ht="13.5" spans="1:6">
-      <c r="A94" s="3"/>
-      <c r="B94" s="6" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9" t="s">
+      <c r="D94" s="5"/>
+      <c r="E94" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F94" s="28" t="s">
+      <c r="F94" s="19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="95" ht="13.5" spans="1:6">
-      <c r="A95" s="3"/>
-      <c r="B95" s="6" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C95" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D95" s="5"/>
+      <c r="E95" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="F95" s="36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C96" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D96" s="5"/>
+      <c r="E96" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F96" s="36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C97" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D97" s="5">
+        <v>4</v>
+      </c>
+      <c r="E97" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="F97" s="36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C98" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D98" s="5">
+        <v>2</v>
+      </c>
+      <c r="E98" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="F98" s="36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C95" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D95" s="9">
+      <c r="C99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="5">
         <v>100</v>
       </c>
-      <c r="E95" s="9"/>
-      <c r="F95" s="28" t="s">
+      <c r="E99" s="5"/>
+      <c r="F99" s="19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="96" ht="13.5" spans="1:6">
-      <c r="A96" s="3"/>
-      <c r="B96" s="10" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C96" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D96" s="42">
+      <c r="C100" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="29">
         <v>10</v>
       </c>
-      <c r="E96" s="42" t="s">
+      <c r="E100" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F96" s="30" t="s">
+      <c r="F100" s="21" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="2:6">
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="18"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="14">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="12"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="10">
         <v>12</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="B103" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="32"/>
-    </row>
-    <row r="100" ht="13.5" spans="1:6">
-      <c r="A100" s="14"/>
-      <c r="B100" s="17" t="s">
+      <c r="C103" s="43"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="44"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="10"/>
+      <c r="B104" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C100" s="18" t="s">
+      <c r="C104" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D100" s="18" t="s">
+      <c r="D104" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E100" s="18" t="s">
+      <c r="E104" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F100" s="33" t="s">
+      <c r="F104" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="14"/>
-      <c r="B101" s="19" t="s">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="10"/>
+      <c r="B105" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C101" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" s="20">
+      <c r="C105" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="14">
         <v>7</v>
       </c>
-      <c r="E101" s="20" t="s">
+      <c r="E105" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F101" s="34" t="s">
+      <c r="F105" s="24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="102" ht="15" spans="1:6">
-      <c r="A102" s="14"/>
-      <c r="B102" s="22" t="s">
+    <row r="106" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A106" s="10"/>
+      <c r="B106" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C102" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D102" s="43">
+      <c r="C106" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" s="30">
         <v>10</v>
       </c>
-      <c r="E102" s="43" t="s">
+      <c r="E106" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F102" s="46" t="s">
+      <c r="F106" s="32" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>13</v>
       </c>
-      <c r="B104" s="15" t="s">
+      <c r="B108" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="32"/>
-    </row>
-    <row r="105" ht="13.5" spans="2:6">
-      <c r="B105" s="17" t="s">
+      <c r="C108" s="43"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="43"/>
+      <c r="F108" s="44"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C105" s="18" t="s">
+      <c r="C109" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D105" s="18" t="s">
+      <c r="D109" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E105" s="18" t="s">
+      <c r="E109" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F105" s="33" t="s">
+      <c r="F109" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="2:6">
-      <c r="B106" s="19" t="s">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C106" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D106" s="20">
+      <c r="C110" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="14">
         <v>7</v>
       </c>
-      <c r="E106" s="20" t="s">
+      <c r="E110" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F106" s="34" t="s">
+      <c r="F110" s="24" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="107" ht="15" spans="2:6">
-      <c r="B107" s="22" t="s">
+    <row r="111" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B111" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C107" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D107" s="43">
+      <c r="C111" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" s="30">
         <v>10</v>
       </c>
-      <c r="E107" s="43" t="s">
+      <c r="E111" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F107" s="46" t="s">
+      <c r="F111" s="32" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>14</v>
-      </c>
-      <c r="B111" s="15" t="s">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>14</v>
+      </c>
+      <c r="B115" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="16"/>
-      <c r="F111" s="32"/>
-    </row>
-    <row r="112" ht="13.5" spans="2:6">
-      <c r="B112" s="17" t="s">
+      <c r="C115" s="43"/>
+      <c r="D115" s="43"/>
+      <c r="E115" s="43"/>
+      <c r="F115" s="44"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C112" s="18" t="s">
+      <c r="C116" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D112" s="18" t="s">
+      <c r="D116" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E112" s="18" t="s">
+      <c r="E116" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F112" s="33" t="s">
+      <c r="F116" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="2:6">
-      <c r="B113" s="19" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C113" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D113" s="20">
+      <c r="C117" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" s="14">
         <v>7</v>
       </c>
-      <c r="E113" s="20" t="s">
+      <c r="E117" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F113" s="34" t="s">
+      <c r="F117" s="24" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="114" ht="15" spans="2:6">
-      <c r="B114" s="22"/>
-      <c r="C114" s="43"/>
-      <c r="D114" s="43"/>
-      <c r="E114" s="43"/>
-      <c r="F114" s="46"/>
+    <row r="118" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B118" s="16"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="30"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B63:F63"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B111:F111"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/se_databaseV1.1.xlsx
+++ b/se_databaseV1.1.xlsx
@@ -473,9 +473,6 @@
     <t>本学期点名次数</t>
   </si>
   <si>
-    <t>co_data</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
@@ -637,6 +634,10 @@
   </si>
   <si>
     <t>小组号前缀中班级号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>co_date</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -958,47 +959,47 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1278,7 +1279,7 @@
   <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1299,44 +1300,44 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
     </row>
     <row r="5" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
     </row>
     <row r="6" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1347,13 +1348,13 @@
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -1470,13 +1471,13 @@
       <c r="A26" s="10">
         <v>5</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="44"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="39"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
@@ -1650,13 +1651,13 @@
       <c r="A39">
         <v>6</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="47"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="42"/>
       <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1811,13 +1812,13 @@
       <c r="A53">
         <v>7</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="47"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="42"/>
     </row>
     <row r="54" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
@@ -1917,13 +1918,13 @@
       <c r="A63">
         <v>8</v>
       </c>
-      <c r="B63" s="45" t="s">
+      <c r="B63" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="46"/>
-      <c r="D63" s="46"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="47"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="42"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B64" s="11" t="s">
@@ -2000,13 +2001,13 @@
       <c r="A71">
         <v>9</v>
       </c>
-      <c r="B71" s="45" t="s">
+      <c r="B71" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="C71" s="46"/>
-      <c r="D71" s="46"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="47"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="42"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B72" s="11" t="s">
@@ -2076,13 +2077,13 @@
       <c r="A78" s="1">
         <v>10</v>
       </c>
-      <c r="B78" s="48" t="s">
+      <c r="B78" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C78" s="49"/>
-      <c r="D78" s="49"/>
-      <c r="E78" s="49"/>
-      <c r="F78" s="50"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="45"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
@@ -2220,13 +2221,13 @@
       <c r="A89" s="1">
         <v>11</v>
       </c>
-      <c r="B89" s="39" t="s">
+      <c r="B89" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C89" s="40"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="40"/>
-      <c r="F89" s="41"/>
+      <c r="C89" s="47"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="48"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
@@ -2299,91 +2300,91 @@
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C95" s="34" t="s">
         <v>120</v>
-      </c>
-      <c r="C95" s="34" t="s">
-        <v>121</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F95" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C96" s="34" t="s">
         <v>122</v>
-      </c>
-      <c r="C96" s="34" t="s">
-        <v>123</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F96" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D97" s="5">
         <v>4</v>
       </c>
       <c r="E97" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F97" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D98" s="5">
         <v>2</v>
       </c>
       <c r="E98" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F98" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>14</v>
@@ -2393,13 +2394,13 @@
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>14</v>
@@ -2411,7 +2412,7 @@
         <v>32</v>
       </c>
       <c r="F100" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2425,13 +2426,13 @@
       <c r="A103" s="10">
         <v>12</v>
       </c>
-      <c r="B103" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="C103" s="43"/>
-      <c r="D103" s="43"/>
-      <c r="E103" s="43"/>
-      <c r="F103" s="44"/>
+      <c r="B103" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103" s="38"/>
+      <c r="D103" s="38"/>
+      <c r="E103" s="38"/>
+      <c r="F103" s="39"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
@@ -2454,7 +2455,7 @@
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C105" s="14" t="s">
         <v>14</v>
@@ -2472,7 +2473,7 @@
     <row r="106" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C106" s="30" t="s">
         <v>14</v>
@@ -2484,20 +2485,20 @@
         <v>46</v>
       </c>
       <c r="F106" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>13</v>
       </c>
-      <c r="B108" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="C108" s="43"/>
-      <c r="D108" s="43"/>
-      <c r="E108" s="43"/>
-      <c r="F108" s="44"/>
+      <c r="B108" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C108" s="38"/>
+      <c r="D108" s="38"/>
+      <c r="E108" s="38"/>
+      <c r="F108" s="39"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B109" s="11" t="s">
@@ -2518,7 +2519,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B110" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C110" s="14" t="s">
         <v>14</v>
@@ -2535,7 +2536,7 @@
     </row>
     <row r="111" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B111" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C111" s="30" t="s">
         <v>14</v>
@@ -2547,20 +2548,20 @@
         <v>46</v>
       </c>
       <c r="F111" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>14</v>
       </c>
-      <c r="B115" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="C115" s="43"/>
-      <c r="D115" s="43"/>
-      <c r="E115" s="43"/>
-      <c r="F115" s="44"/>
+      <c r="B115" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115" s="38"/>
+      <c r="D115" s="38"/>
+      <c r="E115" s="38"/>
+      <c r="F115" s="39"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B116" s="11" t="s">
@@ -2581,7 +2582,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B117" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C117" s="14" t="s">
         <v>14</v>
@@ -2593,7 +2594,7 @@
         <v>15</v>
       </c>
       <c r="F117" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
@@ -2605,22 +2606,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B63:F63"/>
     <mergeCell ref="B115:F115"/>
     <mergeCell ref="B71:F71"/>
     <mergeCell ref="B78:F78"/>
     <mergeCell ref="B89:F89"/>
     <mergeCell ref="B103:F103"/>
     <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/se_databaseV1.1.xlsx
+++ b/se_databaseV1.1.xlsx
@@ -497,9 +497,6 @@
     <t>gm_gr_id</t>
   </si>
   <si>
-    <t>gm_us_id</t>
-  </si>
-  <si>
     <t>成员编号</t>
   </si>
   <si>
@@ -638,6 +635,10 @@
   </si>
   <si>
     <t>co_date</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>gm_st_id</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -959,6 +960,21 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -985,21 +1001,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1278,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1300,44 +1301,44 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1348,13 +1349,13 @@
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="48"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -1471,13 +1472,13 @@
       <c r="A26" s="10">
         <v>5</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="39"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="44"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
@@ -1651,13 +1652,13 @@
       <c r="A39">
         <v>6</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="42"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="47"/>
       <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1812,13 +1813,13 @@
       <c r="A53">
         <v>7</v>
       </c>
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="42"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="47"/>
     </row>
     <row r="54" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
@@ -1918,13 +1919,13 @@
       <c r="A63">
         <v>8</v>
       </c>
-      <c r="B63" s="40" t="s">
+      <c r="B63" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="41"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="42"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="47"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B64" s="11" t="s">
@@ -2001,13 +2002,13 @@
       <c r="A71">
         <v>9</v>
       </c>
-      <c r="B71" s="40" t="s">
+      <c r="B71" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="42"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="47"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B72" s="11" t="s">
@@ -2077,13 +2078,13 @@
       <c r="A78" s="1">
         <v>10</v>
       </c>
-      <c r="B78" s="43" t="s">
+      <c r="B78" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="45"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="49"/>
+      <c r="F78" s="50"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
@@ -2221,13 +2222,13 @@
       <c r="A89" s="1">
         <v>11</v>
       </c>
-      <c r="B89" s="46" t="s">
+      <c r="B89" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C89" s="47"/>
-      <c r="D89" s="47"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="48"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="41"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
@@ -2300,7 +2301,7 @@
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>103</v>
@@ -2316,69 +2317,69 @@
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C95" s="34" t="s">
         <v>119</v>
-      </c>
-      <c r="C95" s="34" t="s">
-        <v>120</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F95" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C96" s="34" t="s">
         <v>121</v>
-      </c>
-      <c r="C96" s="34" t="s">
-        <v>122</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F96" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D97" s="5">
         <v>4</v>
       </c>
       <c r="E97" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F97" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D98" s="5">
         <v>2</v>
       </c>
       <c r="E98" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F98" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2426,13 +2427,13 @@
       <c r="A103" s="10">
         <v>12</v>
       </c>
-      <c r="B103" s="37" t="s">
+      <c r="B103" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="C103" s="38"/>
-      <c r="D103" s="38"/>
-      <c r="E103" s="38"/>
-      <c r="F103" s="39"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="44"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
@@ -2473,7 +2474,7 @@
     <row r="106" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="16" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="C106" s="30" t="s">
         <v>14</v>
@@ -2485,20 +2486,20 @@
         <v>46</v>
       </c>
       <c r="F106" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>13</v>
       </c>
-      <c r="B108" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="C108" s="38"/>
-      <c r="D108" s="38"/>
-      <c r="E108" s="38"/>
-      <c r="F108" s="39"/>
+      <c r="B108" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" s="43"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="43"/>
+      <c r="F108" s="44"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B109" s="11" t="s">
@@ -2519,7 +2520,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B110" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C110" s="14" t="s">
         <v>14</v>
@@ -2536,7 +2537,7 @@
     </row>
     <row r="111" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B111" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C111" s="30" t="s">
         <v>14</v>
@@ -2548,20 +2549,20 @@
         <v>46</v>
       </c>
       <c r="F111" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>14</v>
       </c>
-      <c r="B115" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="C115" s="38"/>
-      <c r="D115" s="38"/>
-      <c r="E115" s="38"/>
-      <c r="F115" s="39"/>
+      <c r="B115" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115" s="43"/>
+      <c r="D115" s="43"/>
+      <c r="E115" s="43"/>
+      <c r="F115" s="44"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B116" s="11" t="s">
@@ -2582,7 +2583,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B117" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C117" s="14" t="s">
         <v>14</v>
@@ -2594,7 +2595,7 @@
         <v>15</v>
       </c>
       <c r="F117" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
@@ -2606,22 +2607,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B63:F63"/>
     <mergeCell ref="B115:F115"/>
     <mergeCell ref="B71:F71"/>
     <mergeCell ref="B78:F78"/>
     <mergeCell ref="B89:F89"/>
     <mergeCell ref="B103:F103"/>
     <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/se_databaseV1.1.xlsx
+++ b/se_databaseV1.1.xlsx
@@ -135,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B115" authorId="0" shapeId="0">
+    <comment ref="B117" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="145">
   <si>
     <t>第一次release</t>
   </si>
@@ -500,13 +500,7 @@
     <t>成员编号</t>
   </si>
   <si>
-    <t>Classcourse</t>
-  </si>
-  <si>
     <t>clcourse_id</t>
-  </si>
-  <si>
-    <t>clclass_id</t>
   </si>
   <si>
     <t>Class</t>
@@ -639,6 +633,50 @@
   </si>
   <si>
     <t>gm_st_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classcourse</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>clid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否失效</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>clclass_id</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -848,7 +886,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -960,47 +998,56 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1277,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1301,44 +1348,44 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
     </row>
     <row r="5" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
     </row>
     <row r="6" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1349,13 +1396,13 @@
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -1472,13 +1519,13 @@
       <c r="A26" s="10">
         <v>5</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="44"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="39"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
@@ -1652,13 +1699,13 @@
       <c r="A39">
         <v>6</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="47"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="42"/>
       <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1813,13 +1860,13 @@
       <c r="A53">
         <v>7</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="47"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="42"/>
     </row>
     <row r="54" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
@@ -1919,13 +1966,13 @@
       <c r="A63">
         <v>8</v>
       </c>
-      <c r="B63" s="45" t="s">
+      <c r="B63" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="46"/>
-      <c r="D63" s="46"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="47"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="42"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B64" s="11" t="s">
@@ -2002,13 +2049,13 @@
       <c r="A71">
         <v>9</v>
       </c>
-      <c r="B71" s="45" t="s">
+      <c r="B71" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="C71" s="46"/>
-      <c r="D71" s="46"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="47"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="42"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B72" s="11" t="s">
@@ -2078,13 +2125,13 @@
       <c r="A78" s="1">
         <v>10</v>
       </c>
-      <c r="B78" s="48" t="s">
+      <c r="B78" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C78" s="49"/>
-      <c r="D78" s="49"/>
-      <c r="E78" s="49"/>
-      <c r="F78" s="50"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="45"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
@@ -2222,13 +2269,13 @@
       <c r="A89" s="1">
         <v>11</v>
       </c>
-      <c r="B89" s="39" t="s">
+      <c r="B89" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C89" s="40"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="40"/>
-      <c r="F89" s="41"/>
+      <c r="C89" s="47"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="48"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
@@ -2301,7 +2348,7 @@
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>103</v>
@@ -2317,69 +2364,69 @@
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C95" s="34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F95" s="36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C96" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F96" s="36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C97" s="34" t="s">
         <v>127</v>
-      </c>
-      <c r="C97" s="34" t="s">
-        <v>129</v>
       </c>
       <c r="D97" s="5">
         <v>4</v>
       </c>
       <c r="E97" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="F97" s="36" t="s">
         <v>131</v>
-      </c>
-      <c r="F97" s="36" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C98" s="34" t="s">
         <v>128</v>
-      </c>
-      <c r="C98" s="34" t="s">
-        <v>130</v>
       </c>
       <c r="D98" s="5">
         <v>2</v>
       </c>
       <c r="E98" s="35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F98" s="36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2427,13 +2474,13 @@
       <c r="A103" s="10">
         <v>12</v>
       </c>
-      <c r="B103" s="42" t="s">
+      <c r="B103" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="C103" s="43"/>
-      <c r="D103" s="43"/>
-      <c r="E103" s="43"/>
-      <c r="F103" s="44"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="38"/>
+      <c r="E103" s="38"/>
+      <c r="F103" s="39"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
@@ -2474,7 +2521,7 @@
     <row r="106" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C106" s="30" t="s">
         <v>14</v>
@@ -2493,13 +2540,13 @@
       <c r="A108">
         <v>13</v>
       </c>
-      <c r="B108" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="C108" s="43"/>
-      <c r="D108" s="43"/>
-      <c r="E108" s="43"/>
-      <c r="F108" s="44"/>
+      <c r="B108" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C108" s="38"/>
+      <c r="D108" s="38"/>
+      <c r="E108" s="38"/>
+      <c r="F108" s="39"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B109" s="11" t="s">
@@ -2519,110 +2566,138 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="13" t="s">
+      <c r="B110" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C110" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F111" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" s="14">
+        <v>7</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F112" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B113" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="C113" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" s="30">
+        <v>10</v>
+      </c>
+      <c r="E113" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="F113" s="32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>14</v>
+      </c>
+      <c r="B117" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C110" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D110" s="14">
+      <c r="C117" s="38"/>
+      <c r="D117" s="38"/>
+      <c r="E117" s="38"/>
+      <c r="F117" s="39"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" s="14">
         <v>7</v>
       </c>
-      <c r="E110" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F110" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B111" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C111" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D111" s="30">
-        <v>10</v>
-      </c>
-      <c r="E111" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F111" s="32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>14</v>
-      </c>
-      <c r="B115" s="42" t="s">
+      <c r="E119" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F119" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="C115" s="43"/>
-      <c r="D115" s="43"/>
-      <c r="E115" s="43"/>
-      <c r="F115" s="44"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B116" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E116" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F116" s="23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C117" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D117" s="14">
-        <v>7</v>
-      </c>
-      <c r="E117" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F117" s="24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B118" s="16"/>
-      <c r="C118" s="30"/>
-      <c r="D118" s="30"/>
-      <c r="E118" s="30"/>
-      <c r="F118" s="32"/>
+    </row>
+    <row r="120" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B120" s="16"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="30"/>
+      <c r="E120" s="30"/>
+      <c r="F120" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B117:F117"/>
     <mergeCell ref="B71:F71"/>
     <mergeCell ref="B78:F78"/>
     <mergeCell ref="B89:F89"/>
     <mergeCell ref="B103:F103"/>
     <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
